--- a/Hosp-Apr1.xlsx
+++ b/Hosp-Apr1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbishop/Documents/Working/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F15507EB-1A81-E24B-A6D5-64EE4125367D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DD8711-078B-E641-8257-DC28A85765D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{5CCD31E9-3C6D-D945-9898-3B8F89AE9D96}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,16 +435,17 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -463,10 +465,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>43908</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>496</v>
       </c>
       <c r="C2">
@@ -486,13 +488,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>43909</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>617</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4152</v>
       </c>
       <c r="D3">
@@ -509,13 +511,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>43910</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1042</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>7102</v>
       </c>
       <c r="D4">
@@ -532,13 +534,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>43911</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1406</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>10356</v>
       </c>
       <c r="D5">
@@ -555,13 +557,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>43912</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2043</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>15168</v>
       </c>
       <c r="D6">
@@ -578,13 +580,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>43913</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2629</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>20875</v>
       </c>
       <c r="D7">
@@ -601,13 +603,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>43914</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3343</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>25665</v>
       </c>
       <c r="D8">
@@ -624,13 +626,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>43915</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4079</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>30811</v>
       </c>
       <c r="D9">
@@ -647,13 +649,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>43916</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>5327</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>37258</v>
       </c>
       <c r="D10">
@@ -670,13 +672,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>43917</v>
       </c>
       <c r="B11">
         <v>6481</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>44635</v>
       </c>
       <c r="D11">
@@ -693,13 +695,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>43918</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>7250</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>52318</v>
       </c>
       <c r="D12">
@@ -716,13 +718,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>43919</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>8450</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>59513</v>
       </c>
       <c r="D13">
@@ -739,13 +741,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>43920</v>
       </c>
       <c r="B14">
         <v>9500</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>66497</v>
       </c>
       <c r="D14">
@@ -762,13 +764,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>43921</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>10900</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>75795</v>
       </c>
       <c r="D15">
@@ -785,13 +787,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>43922</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>12266</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>83712</v>
       </c>
       <c r="D16">
@@ -808,13 +810,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>43923</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>13383</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>92381</v>
       </c>
       <c r="D17">
